--- a/results/mp/logistic/toy-spam/confidence/126/stop-words-topk-desired-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/126/stop-words-topk-desired-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="130">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,121 +40,136 @@
     <t>name</t>
   </si>
   <si>
+    <t>paid</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
     <t>return</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>poorly</t>
+    <t>pool</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
+    <t>guess</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
     <t>tried</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>pay</t>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>missing</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>paid</t>
+    <t>minutes</t>
   </si>
   <si>
     <t>sound</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>pool</t>
+    <t>di</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>instructions</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>worst</t>
   </si>
   <si>
     <t>picture</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>instead</t>
+    <t>nothing</t>
   </si>
   <si>
     <t>lasted</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>reviews</t>
+    <t>doll</t>
   </si>
   <si>
     <t>air</t>
@@ -163,52 +178,91 @@
     <t>smaller</t>
   </si>
   <si>
-    <t>nothing</t>
+    <t>balls</t>
   </si>
   <si>
     <t>hold</t>
   </si>
   <si>
-    <t>ball</t>
-  </si>
-  <si>
-    <t>di</t>
+    <t>rip</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>within</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>received</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>sent</t>
+    <t>description</t>
+  </si>
+  <si>
+    <t>looked</t>
+  </si>
+  <si>
+    <t>week</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>doll</t>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>ordered</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>made</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>two</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
-    <t>would</t>
+    <t>first</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>negative</t>
@@ -217,52 +271,61 @@
     <t>challenge</t>
   </si>
   <si>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>blast</t>
+  </si>
+  <si>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>elf</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>expansion</t>
-  </si>
-  <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>blast</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>excellent</t>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>helicopter</t>
+  </si>
+  <si>
+    <t>strategy</t>
+  </si>
+  <si>
+    <t>thomas</t>
+  </si>
+  <si>
+    <t>loved</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>helicopter</t>
-  </si>
-  <si>
-    <t>elf</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>strategy</t>
+    <t>grandchildren</t>
+  </si>
+  <si>
+    <t>perfect</t>
   </si>
   <si>
     <t>stores</t>
@@ -271,58 +334,73 @@
     <t>great</t>
   </si>
   <si>
-    <t>grandchildren</t>
+    <t>ages</t>
+  </si>
+  <si>
+    <t>books</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>lego</t>
+  </si>
+  <si>
+    <t>educational</t>
+  </si>
+  <si>
+    <t>wait</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>ages</t>
+    <t>challenging</t>
+  </si>
+  <si>
+    <t>everyone</t>
   </si>
   <si>
     <t>hit</t>
   </si>
   <si>
-    <t>wait</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>thomas</t>
-  </si>
-  <si>
-    <t>challenging</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>lego</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
     <t>game</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>fun</t>
   </si>
   <si>
-    <t>best</t>
+    <t>book</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
   </si>
   <si>
     <t>lots</t>
   </si>
   <si>
-    <t>book</t>
-  </si>
-  <si>
     <t>recommend</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>playing</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>positive</t>
@@ -683,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -691,10 +769,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="J1" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -755,10 +833,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -773,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="K3">
         <v>0.9333333333333333</v>
@@ -802,13 +880,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9859154929577465</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="D4">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -820,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="K4">
-        <v>0.9247311827956989</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="L4">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -844,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -852,13 +930,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9789473684210527</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -870,19 +948,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="K5">
-        <v>0.9148936170212766</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -894,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -902,13 +980,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.967741935483871</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -920,19 +998,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="K6">
-        <v>0.8867924528301887</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L6">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="M6">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -944,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -952,13 +1030,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9660194174757282</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C7">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -970,19 +1048,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="K7">
         <v>0.875</v>
       </c>
       <c r="L7">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="M7">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -994,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1002,13 +1080,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9623655913978495</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="C8">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="D8">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1020,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="K8">
-        <v>0.8701298701298701</v>
+        <v>0.875</v>
       </c>
       <c r="L8">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="M8">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1044,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1052,13 +1130,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9565217391304348</v>
+        <v>0.9731182795698925</v>
       </c>
       <c r="C9">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="D9">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1070,19 +1148,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="K9">
-        <v>0.8615384615384616</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L9">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="M9">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1094,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1102,13 +1180,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9259259259259259</v>
+        <v>0.970873786407767</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1120,19 +1198,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="K10">
-        <v>0.859375</v>
+        <v>0.8441558441558441</v>
       </c>
       <c r="L10">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="M10">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1144,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1152,13 +1230,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.9140625</v>
+        <v>0.968421052631579</v>
       </c>
       <c r="C11">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="D11">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1170,19 +1248,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="K11">
-        <v>0.8392857142857143</v>
+        <v>0.796875</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1194,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1202,13 +1280,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8909090909090909</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="C12">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D12">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1220,19 +1298,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="K12">
-        <v>0.8153526970954357</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="L12">
-        <v>393</v>
+        <v>74</v>
       </c>
       <c r="M12">
-        <v>393</v>
+        <v>74</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1244,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>89</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1252,13 +1330,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8863636363636364</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="C13">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1270,19 +1348,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="K13">
-        <v>0.8148148148148148</v>
+        <v>0.7904564315352697</v>
       </c>
       <c r="L13">
-        <v>22</v>
+        <v>381</v>
       </c>
       <c r="M13">
-        <v>22</v>
+        <v>381</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1294,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1302,13 +1380,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8524590163934426</v>
+        <v>0.9074074074074074</v>
       </c>
       <c r="C14">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D14">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1320,19 +1398,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="K14">
-        <v>0.8035714285714286</v>
+        <v>0.776183644189383</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>541</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>541</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1344,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1352,13 +1430,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.84375</v>
+        <v>0.9074074074074074</v>
       </c>
       <c r="C15">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D15">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1370,19 +1448,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="K15">
-        <v>0.765625</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="L15">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="M15">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1394,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1402,13 +1480,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8412698412698413</v>
+        <v>0.90625</v>
       </c>
       <c r="C16">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="D16">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1420,19 +1498,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="K16">
-        <v>0.7604017216642754</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>530</v>
+        <v>42</v>
       </c>
       <c r="M16">
-        <v>530</v>
+        <v>42</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1444,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>167</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1452,13 +1530,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.8192771084337349</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C17">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D17">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1470,19 +1548,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="K17">
-        <v>0.7096774193548387</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="L17">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1494,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1502,13 +1580,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.8157894736842105</v>
+        <v>0.875</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1520,19 +1598,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="K18">
-        <v>0.6788990825688074</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L18">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1544,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>105</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1552,13 +1630,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.8056872037914692</v>
+        <v>0.8727272727272727</v>
       </c>
       <c r="C19">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="D19">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1570,19 +1648,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="K19">
-        <v>0.6585365853658537</v>
+        <v>0.709480122324159</v>
       </c>
       <c r="L19">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="M19">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1594,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1602,13 +1680,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7631578947368421</v>
+        <v>0.8524590163934426</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D20">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1623,16 +1701,16 @@
         <v>9</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="K20">
-        <v>0.6551724137931034</v>
+        <v>0.6964285714285714</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1644,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1652,13 +1730,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7536231884057971</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="C21">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D21">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1670,19 +1748,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="K21">
-        <v>0.578688524590164</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="L21">
-        <v>706</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>706</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1694,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>514</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1702,37 +1780,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7407407407407407</v>
+        <v>0.8104265402843602</v>
       </c>
       <c r="C22">
+        <v>171</v>
+      </c>
+      <c r="D22">
+        <v>171</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>40</v>
       </c>
-      <c r="D22">
-        <v>40</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>14</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K22">
-        <v>0.5272727272727272</v>
+        <v>0.6144578313253012</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1744,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>26</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1752,13 +1830,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7142857142857143</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1770,19 +1848,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="K23">
-        <v>0.5072463768115942</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="L23">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="M23">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1794,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1802,13 +1880,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.711340206185567</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="C24">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="D24">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1820,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K24">
-        <v>0.5042735042735043</v>
+        <v>0.5775225594749795</v>
       </c>
       <c r="L24">
-        <v>59</v>
+        <v>704</v>
       </c>
       <c r="M24">
-        <v>59</v>
+        <v>705</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1841,10 +1919,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>58</v>
+        <v>515</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1852,13 +1930,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.7068965517241379</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C25">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D25">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1870,19 +1948,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K25">
-        <v>0.4927536231884058</v>
+        <v>0.5726495726495726</v>
       </c>
       <c r="L25">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="M25">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1894,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1902,13 +1980,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.7027027027027027</v>
+        <v>0.7710843373493976</v>
       </c>
       <c r="C26">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D26">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1920,19 +1998,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K26">
-        <v>0.4848484848484849</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1944,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1952,7 +2030,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6951219512195121</v>
+        <v>0.7702702702702703</v>
       </c>
       <c r="C27">
         <v>57</v>
@@ -1970,19 +2048,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="K27">
-        <v>0.4698795180722892</v>
+        <v>0.5013927576601671</v>
       </c>
       <c r="L27">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="M27">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1994,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>88</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2002,13 +2080,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6857142857142857</v>
+        <v>0.7536231884057971</v>
       </c>
       <c r="C28">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D28">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2020,19 +2098,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="K28">
-        <v>0.4373259052924791</v>
+        <v>0.4905660377358491</v>
       </c>
       <c r="L28">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2044,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>202</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2052,13 +2130,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="C29">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D29">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2070,19 +2148,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="K29">
-        <v>0.4166666666666667</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2094,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2102,13 +2180,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6428571428571429</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="C30">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D30">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2120,19 +2198,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="K30">
-        <v>0.38</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2144,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2152,13 +2230,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6296296296296297</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C31">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D31">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2170,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="K31">
-        <v>0.3333333333333333</v>
+        <v>0.4696969696969697</v>
       </c>
       <c r="L31">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2194,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>126</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2202,13 +2280,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6289855072463768</v>
+        <v>0.7195121951219512</v>
       </c>
       <c r="C32">
-        <v>217</v>
+        <v>59</v>
       </c>
       <c r="D32">
-        <v>217</v>
+        <v>59</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2220,19 +2298,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="K32">
-        <v>0.3285714285714286</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="L32">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M32">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2244,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2252,13 +2330,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.625</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C33">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D33">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2270,19 +2348,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="K33">
-        <v>0.2830188679245283</v>
+        <v>0.44</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2294,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2302,13 +2380,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.6190476190476191</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="C34">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D34">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2320,19 +2398,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="K34">
-        <v>0.2517845554834523</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="L34">
-        <v>388</v>
+        <v>36</v>
       </c>
       <c r="M34">
-        <v>388</v>
+        <v>36</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2344,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>1153</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2352,13 +2430,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.6138613861386139</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C35">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="D35">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2370,19 +2448,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="K35">
-        <v>0.182296231375986</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="L35">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="M35">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2394,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>933</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2402,13 +2480,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5555555555555556</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="C36">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D36">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2420,19 +2498,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="K36">
-        <v>0.175</v>
+        <v>0.3227513227513227</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2444,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2452,13 +2530,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C37">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="D37">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2470,19 +2548,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="K37">
-        <v>0.1721311475409836</v>
+        <v>0.3201298701298702</v>
       </c>
       <c r="L37">
-        <v>21</v>
+        <v>493</v>
       </c>
       <c r="M37">
-        <v>21</v>
+        <v>494</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2491,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>101</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2502,13 +2580,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5476190476190477</v>
+        <v>0.6287128712871287</v>
       </c>
       <c r="C38">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="D38">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2520,19 +2598,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="K38">
-        <v>0.1428571428571428</v>
+        <v>0.275</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2544,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>132</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2552,13 +2630,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5379746835443038</v>
+        <v>0.6203703703703703</v>
       </c>
       <c r="C39">
-        <v>170</v>
+        <v>67</v>
       </c>
       <c r="D39">
-        <v>170</v>
+        <v>67</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2570,19 +2648,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="K39">
-        <v>0.05208333333333334</v>
+        <v>0.272</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2594,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>273</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2602,13 +2680,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5178571428571429</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C40">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D40">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2620,7 +2698,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K40">
+        <v>0.238387379491674</v>
+      </c>
+      <c r="L40">
+        <v>272</v>
+      </c>
+      <c r="M40">
+        <v>272</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>869</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2628,7 +2730,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5172413793103449</v>
+        <v>0.6</v>
       </c>
       <c r="C41">
         <v>15</v>
@@ -2646,7 +2748,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K41">
+        <v>0.2272727272727273</v>
+      </c>
+      <c r="L41">
+        <v>35</v>
+      </c>
+      <c r="M41">
+        <v>35</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2654,13 +2780,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.5</v>
+        <v>0.5979381443298969</v>
       </c>
       <c r="C42">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D42">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2672,7 +2798,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K42">
+        <v>0.1349206349206349</v>
+      </c>
+      <c r="L42">
+        <v>17</v>
+      </c>
+      <c r="M42">
+        <v>17</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2680,13 +2830,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4789915966386555</v>
+        <v>0.5934065934065934</v>
       </c>
       <c r="C43">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D43">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2698,7 +2848,31 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>62</v>
+        <v>37</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K43">
+        <v>0.1229508196721311</v>
+      </c>
+      <c r="L43">
+        <v>15</v>
+      </c>
+      <c r="M43">
+        <v>15</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2706,13 +2880,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.4175824175824176</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C44">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D44">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2724,7 +2898,31 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>53</v>
+        <v>18</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K44">
+        <v>0.1180555555555556</v>
+      </c>
+      <c r="L44">
+        <v>34</v>
+      </c>
+      <c r="M44">
+        <v>34</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2732,13 +2930,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3783783783783784</v>
+        <v>0.560126582278481</v>
       </c>
       <c r="C45">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="D45">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2750,7 +2948,31 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>46</v>
+        <v>139</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K45">
+        <v>0.068</v>
+      </c>
+      <c r="L45">
+        <v>51</v>
+      </c>
+      <c r="M45">
+        <v>53</v>
+      </c>
+      <c r="N45">
+        <v>0.96</v>
+      </c>
+      <c r="O45">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>699</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2758,13 +2980,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.360655737704918</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="C46">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D46">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2776,7 +2998,31 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K46">
+        <v>0.05864197530864197</v>
+      </c>
+      <c r="L46">
+        <v>19</v>
+      </c>
+      <c r="M46">
+        <v>19</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2784,7 +3030,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.34375</v>
+        <v>0.55</v>
       </c>
       <c r="C47">
         <v>22</v>
@@ -2802,7 +3048,31 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>42</v>
+        <v>18</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K47">
+        <v>0.05080213903743316</v>
+      </c>
+      <c r="L47">
+        <v>19</v>
+      </c>
+      <c r="M47">
+        <v>19</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>355</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2810,13 +3080,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.3152173913043478</v>
+        <v>0.5378151260504201</v>
       </c>
       <c r="C48">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D48">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2828,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>189</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2836,25 +3106,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.3061224489795918</v>
+        <v>0.53125</v>
       </c>
       <c r="C49">
+        <v>17</v>
+      </c>
+      <c r="D49">
+        <v>17</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
         <v>15</v>
-      </c>
-      <c r="D49">
-        <v>15</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2862,13 +3132,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.3015873015873016</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C50">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D50">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2880,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2888,13 +3158,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2531645569620253</v>
+        <v>0.5</v>
       </c>
       <c r="C51">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2906,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>236</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2914,7 +3184,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1976744186046512</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C52">
         <v>17</v>
@@ -2932,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2940,13 +3210,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.185</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C53">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D53">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2958,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>163</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2966,13 +3236,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1293375394321767</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C54">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D54">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2984,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>276</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2992,13 +3262,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C55">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D55">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3010,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>124</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3018,13 +3288,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1052631578947368</v>
+        <v>0.425</v>
       </c>
       <c r="C56">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D56">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3036,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>153</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3044,13 +3314,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.07048458149779736</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C57">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D57">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3062,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>422</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3070,13 +3340,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.05801526717557252</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C58">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D58">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3088,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>617</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3096,13 +3366,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.03412462908011869</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="C59">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="D59">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3114,7 +3384,475 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>651</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C60">
+        <v>16</v>
+      </c>
+      <c r="D60">
+        <v>16</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="C61">
+        <v>18</v>
+      </c>
+      <c r="D61">
+        <v>18</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>0.3</v>
+      </c>
+      <c r="C62">
+        <v>18</v>
+      </c>
+      <c r="D62">
+        <v>18</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>0.2911392405063291</v>
+      </c>
+      <c r="C63">
+        <v>92</v>
+      </c>
+      <c r="D63">
+        <v>92</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>0.2404371584699453</v>
+      </c>
+      <c r="C64">
+        <v>44</v>
+      </c>
+      <c r="D64">
+        <v>44</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>0.234375</v>
+      </c>
+      <c r="C65">
+        <v>30</v>
+      </c>
+      <c r="D65">
+        <v>30</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="C66">
+        <v>26</v>
+      </c>
+      <c r="D66">
+        <v>26</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>0.1754385964912281</v>
+      </c>
+      <c r="C67">
+        <v>30</v>
+      </c>
+      <c r="D67">
+        <v>30</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68">
+        <v>0.1467889908256881</v>
+      </c>
+      <c r="C68">
+        <v>16</v>
+      </c>
+      <c r="D68">
+        <v>16</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69">
+        <v>0.145</v>
+      </c>
+      <c r="C69">
+        <v>29</v>
+      </c>
+      <c r="D69">
+        <v>29</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70">
+        <v>0.1387665198237885</v>
+      </c>
+      <c r="C70">
+        <v>63</v>
+      </c>
+      <c r="D70">
+        <v>63</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71">
+        <v>0.1320474777448071</v>
+      </c>
+      <c r="C71">
+        <v>89</v>
+      </c>
+      <c r="D71">
+        <v>89</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72">
+        <v>0.1265822784810127</v>
+      </c>
+      <c r="C72">
+        <v>40</v>
+      </c>
+      <c r="D72">
+        <v>41</v>
+      </c>
+      <c r="E72">
+        <v>0.02</v>
+      </c>
+      <c r="F72">
+        <v>0.98</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73">
+        <v>0.1206896551724138</v>
+      </c>
+      <c r="C73">
+        <v>42</v>
+      </c>
+      <c r="D73">
+        <v>42</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74">
+        <v>0.1071428571428571</v>
+      </c>
+      <c r="C74">
+        <v>21</v>
+      </c>
+      <c r="D74">
+        <v>21</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75">
+        <v>0.08396946564885496</v>
+      </c>
+      <c r="C75">
+        <v>55</v>
+      </c>
+      <c r="D75">
+        <v>55</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76">
+        <v>0.08064516129032258</v>
+      </c>
+      <c r="C76">
+        <v>15</v>
+      </c>
+      <c r="D76">
+        <v>15</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77">
+        <v>0.04519774011299435</v>
+      </c>
+      <c r="C77">
+        <v>16</v>
+      </c>
+      <c r="D77">
+        <v>17</v>
+      </c>
+      <c r="E77">
+        <v>0.06</v>
+      </c>
+      <c r="F77">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
